--- a/df_list_20250319.xlsx
+++ b/df_list_20250319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="488">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -1165,16 +1165,332 @@
   </si>
   <si>
     <t>「2025년 중요기록물 전산화(DB) 구축사업」제안서 평가위원(후보자) 공개 모집 공고</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>「광명시 버스노선 개편계획 수립 용역」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>제안서 평기위원(후보자) 모집 공고(김포시 지능정보사회 종합계획 수립)</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>「2025년 전주 덕진공원 수질개선용역」제안서 평가위원(후보자) 모집 공...</t>
+  </si>
+  <si>
+    <t>A135</t>
+  </si>
+  <si>
+    <t>전라도_진안군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jinan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집공고(진안 원평지 들소리 및 농...</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>2025년 경산시 도시계획정보 DB현행화 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A170</t>
+  </si>
+  <si>
+    <t>경상도_봉화군</t>
+  </si>
+  <si>
+    <t>https://www.bonghwa.go.kr/open.content/ko/news/news/announcement/bonghwa/?p=2</t>
+  </si>
+  <si>
+    <t>봉화군 도로 및 지하시설물 전산화사업(3단계) 협상에 의한 계약 제안서 ...</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>울진군 유기농산업 복합서비스 지원단지 관리운영계획 수립 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 강원특별자치도 버스운송사업자 경영수지분석 및 운송원가 검증용역 제안서 정성적 평가결과 공고</t>
+  </si>
+  <si>
+    <t>보라매고가 보수(도장)공사 제안서 제출안내 공고(신기술·특허공법(강교도장) 제안서)</t>
+  </si>
+  <si>
+    <t>녹천교 외1개소 보수공사 신기술？특허공법(표면보수, 교면방수) 최종 선정 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 평가위원 모집 공고(대구도서관 네트워크 시스템 구축)</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>2025년 사회적가치지표(SVI) 측정 컨설팅 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(임금체불 예방 정책 확대, 우수 중소건설기업 인증제 도입 연구)</t>
+  </si>
+  <si>
+    <t>&amp;#65279;2025년「경기도 주민자치 활성화 프로그램 운영」용역 제안서평가위원 모집</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년도 제1차 충청남도 건축물 미술작품 심의위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=1</t>
+  </si>
+  <si>
+    <t>「대성교 보수보강 공사(특허공법)」전자 입찰공고(긴급)새글</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=5</t>
+  </si>
+  <si>
+    <t>「관내 노후 지하차도 보수보강 공사(고색지하차도 등 2개소)(특허공법)」전자 입찰공고(긴급)</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>경기도_시흥시</t>
+  </si>
+  <si>
+    <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
+  </si>
+  <si>
+    <t>워터프론트 아이덴티티 정립 및 공간개선 기본계획 수립 용역 제안서 평가위원(후보자) 추가모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=3</t>
+  </si>
+  <si>
+    <t>2025년 안양시 청년자율예산 제안사업 접수 공고</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>경기도_의정부시</t>
+  </si>
+  <si>
+    <t>https://www.ui4u.go.kr/portal/saeol/gosiList.do?seCode=01&amp;mId=0301040000</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 공개 모집 공고[2025년 의정부시 도시계획정보 및 운영장비 유지관리 용역]</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-824호(재)포천시청소년재단 2025 포천시 청소년 해외문화탐방 운영지원 용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>경기도_가평군</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 가평군 마을공동체 주민제안 공모사업 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>강원도_강릉시</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>구정면 주민참여예산 지역현안사업 추가 제안접수 공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=2</t>
+  </si>
+  <si>
+    <t>「춘천시 생성형 AI 활용 행정 기반 구축 컨설팅 용역」제안서 평가위원회 정성평가 결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=3</t>
+  </si>
+  <si>
+    <t>“상운천(서양교) 재가설 공사” 교량 공법선정 심의위원 모집 공고</t>
+  </si>
+  <si>
+    <t>「상운천(서양교) 재가설 공사」 특정공법 선정을 위한 기술제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>강원도_정선군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>「정선군 생활폐기물 처리시설 입지타당성 조사 용역」 제안서 평가위원(후보...</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>강원도_홍천군</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 홍천물놀이장 운영관리용역 제안서 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>서오창IC 진입관문형 조형시설물 제작 설치 사업 제안서 제출안내 공고(협상에 의한 계약)</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>옥화자연휴양림 액티비티 체험시설 제안 및 제작설치(긴급) 제안서 제출안내 취소공고</t>
+  </si>
+  <si>
+    <t>풍년로 일원 오수관로 정비공사 특정공법(비굴착 보수공사)선정을 위한 기술...</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>충청도_청주시_흥덕구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;cha_dep_code_nm=57300220000,57300210000,57300040000,57300230000,57300060000,57300070000,57300240000,57300090000,57102000000&amp;yyyy=2018</t>
+  </si>
+  <si>
+    <t>2025년 충청북도 지역공동체 제안 공모사업 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 국가유산 활용사업 운영용역 제안서 평가위원(후보자) 모집 공고새글</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>충청도_계룡시</t>
+  </si>
+  <si>
+    <t>https://gyeryong.go.kr/kr/html/sub03/030102.html?GotoPage=1</t>
+  </si>
+  <si>
+    <t>계룡시 오페라+드라마 토크콘서트 제작·공연 용역 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=2</t>
+  </si>
+  <si>
+    <t>죽도 탄소제로 체험마을 조성(1단계) 현장관리단(PM) 운용 용역 제안서 평가 결과 공고새글</t>
+  </si>
+  <si>
+    <t>2025년 군산시 정신건강 심의·심사위원회 위원 명단 공개</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>[40581]「고인돌유적지 탐방열차 제작 구입」 제안서 평가위원회 평가위원(후보자) 모집 공고첨부파일 있음</t>
+  </si>
+  <si>
+    <t>[40590]2026년 예산편성을 위한 고창군 주민참여예산 주민제안사업 집중접수공고첨부파일 있음</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>해창만지구 국가관리방조제 개보수 특정공법(신기술, 특허) 선정을 위한...</t>
+  </si>
+  <si>
+    <t>「포항시 모빌리티산업 육성 중장기 마스터플랜 수립 용역」 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>경상도_창원시</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>상곡교 내진보강공사 교량인상을 위한 특정공법 선정 위원평가결과</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1196,6 +1512,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1226,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1236,6 +1556,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4097,122 +4426,2326 @@
         <v>45735.55238425926</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F163" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F165" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F167" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F169" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F173" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F175" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F176" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F180" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F189" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F198" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F206" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F209" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F211" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F212" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F214" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F215" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F220" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F221" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45736.0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E223" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F224" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F225" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E226" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F226" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F227" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E228" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F228" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E229" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F229" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E232" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F232" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F233" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E234" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F234" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E235" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F235" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F236" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E237" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F237" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E238" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F238" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E239" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F239" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E240" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F240" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E241" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F241" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E242" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F242" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E243" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F243" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E244" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F244" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E245" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F245" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E246" s="7">
+        <v>45734.0</v>
+      </c>
+      <c r="F246" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E247" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F247" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E248" s="7">
+        <v>45735.0</v>
+      </c>
+      <c r="F248" s="7">
+        <v>45736.05532407408</v>
+      </c>
+    </row>
     <row r="249" ht="15.75" customHeight="1"/>
     <row r="250" ht="15.75" customHeight="1"/>
     <row r="251" ht="15.75" customHeight="1"/>
@@ -4966,9 +7499,127 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C133"/>
+    <hyperlink r:id="rId2" ref="C134"/>
+    <hyperlink r:id="rId3" ref="C135"/>
+    <hyperlink r:id="rId4" ref="C136"/>
+    <hyperlink r:id="rId5" ref="C137"/>
+    <hyperlink r:id="rId6" ref="C138"/>
+    <hyperlink r:id="rId7" ref="C139"/>
+    <hyperlink r:id="rId8" ref="C140"/>
+    <hyperlink r:id="rId9" ref="C141"/>
+    <hyperlink r:id="rId10" ref="C142"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C143"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C144"/>
+    <hyperlink r:id="rId13" location="list/1" ref="C145"/>
+    <hyperlink r:id="rId14" location="list/1" ref="C146"/>
+    <hyperlink r:id="rId15" ref="C147"/>
+    <hyperlink r:id="rId16" ref="C148"/>
+    <hyperlink r:id="rId17" ref="C149"/>
+    <hyperlink r:id="rId18" ref="C150"/>
+    <hyperlink r:id="rId19" ref="C151"/>
+    <hyperlink r:id="rId20" ref="C152"/>
+    <hyperlink r:id="rId21" ref="C153"/>
+    <hyperlink r:id="rId22" ref="C154"/>
+    <hyperlink r:id="rId23" location="page=1" ref="C155"/>
+    <hyperlink r:id="rId24" location="page=4" ref="C156"/>
+    <hyperlink r:id="rId25" location="page=4" ref="C157"/>
+    <hyperlink r:id="rId26" ref="C158"/>
+    <hyperlink r:id="rId27" ref="C159"/>
+    <hyperlink r:id="rId28" ref="C160"/>
+    <hyperlink r:id="rId29" ref="C161"/>
+    <hyperlink r:id="rId30" ref="C162"/>
+    <hyperlink r:id="rId31" ref="C163"/>
+    <hyperlink r:id="rId32" ref="C164"/>
+    <hyperlink r:id="rId33" ref="C165"/>
+    <hyperlink r:id="rId34" ref="C166"/>
+    <hyperlink r:id="rId35" ref="C167"/>
+    <hyperlink r:id="rId36" ref="C168"/>
+    <hyperlink r:id="rId37" ref="C169"/>
+    <hyperlink r:id="rId38" ref="C170"/>
+    <hyperlink r:id="rId39" ref="C171"/>
+    <hyperlink r:id="rId40" ref="C172"/>
+    <hyperlink r:id="rId41" ref="C173"/>
+    <hyperlink r:id="rId42" ref="C174"/>
+    <hyperlink r:id="rId43" ref="C175"/>
+    <hyperlink r:id="rId44" ref="C176"/>
+    <hyperlink r:id="rId45" ref="C177"/>
+    <hyperlink r:id="rId46" ref="C178"/>
+    <hyperlink r:id="rId47" ref="C179"/>
+    <hyperlink r:id="rId48" ref="C180"/>
+    <hyperlink r:id="rId49" ref="C181"/>
+    <hyperlink r:id="rId50" ref="C182"/>
+    <hyperlink r:id="rId51" ref="C183"/>
+    <hyperlink r:id="rId52" ref="C184"/>
+    <hyperlink r:id="rId53" ref="C185"/>
+    <hyperlink r:id="rId54" ref="C186"/>
+    <hyperlink r:id="rId55" ref="C187"/>
+    <hyperlink r:id="rId56" ref="C188"/>
+    <hyperlink r:id="rId57" ref="C189"/>
+    <hyperlink r:id="rId58" ref="C190"/>
+    <hyperlink r:id="rId59" ref="C191"/>
+    <hyperlink r:id="rId60" ref="C192"/>
+    <hyperlink r:id="rId61" ref="C193"/>
+    <hyperlink r:id="rId62" ref="C194"/>
+    <hyperlink r:id="rId63" ref="C195"/>
+    <hyperlink r:id="rId64" ref="C196"/>
+    <hyperlink r:id="rId65" ref="C197"/>
+    <hyperlink r:id="rId66" ref="C198"/>
+    <hyperlink r:id="rId67" ref="C199"/>
+    <hyperlink r:id="rId68" ref="C200"/>
+    <hyperlink r:id="rId69" ref="C201"/>
+    <hyperlink r:id="rId70" ref="C202"/>
+    <hyperlink r:id="rId71" ref="C203"/>
+    <hyperlink r:id="rId72" ref="C204"/>
+    <hyperlink r:id="rId73" ref="C205"/>
+    <hyperlink r:id="rId74" ref="C206"/>
+    <hyperlink r:id="rId75" ref="C207"/>
+    <hyperlink r:id="rId76" ref="C208"/>
+    <hyperlink r:id="rId77" ref="C209"/>
+    <hyperlink r:id="rId78" ref="C210"/>
+    <hyperlink r:id="rId79" ref="C211"/>
+    <hyperlink r:id="rId80" ref="C212"/>
+    <hyperlink r:id="rId81" ref="C213"/>
+    <hyperlink r:id="rId82" ref="C214"/>
+    <hyperlink r:id="rId83" ref="C215"/>
+    <hyperlink r:id="rId84" ref="C216"/>
+    <hyperlink r:id="rId85" ref="C217"/>
+    <hyperlink r:id="rId86" ref="C218"/>
+    <hyperlink r:id="rId87" ref="C219"/>
+    <hyperlink r:id="rId88" ref="C220"/>
+    <hyperlink r:id="rId89" ref="C221"/>
+    <hyperlink r:id="rId90" ref="C222"/>
+    <hyperlink r:id="rId91" ref="C223"/>
+    <hyperlink r:id="rId92" ref="C224"/>
+    <hyperlink r:id="rId93" ref="C225"/>
+    <hyperlink r:id="rId94" ref="C226"/>
+    <hyperlink r:id="rId95" ref="C227"/>
+    <hyperlink r:id="rId96" ref="C228"/>
+    <hyperlink r:id="rId97" ref="C229"/>
+    <hyperlink r:id="rId98" ref="C230"/>
+    <hyperlink r:id="rId99" ref="C231"/>
+    <hyperlink r:id="rId100" ref="C232"/>
+    <hyperlink r:id="rId101" ref="C233"/>
+    <hyperlink r:id="rId102" ref="C234"/>
+    <hyperlink r:id="rId103" ref="C235"/>
+    <hyperlink r:id="rId104" ref="C236"/>
+    <hyperlink r:id="rId105" ref="C237"/>
+    <hyperlink r:id="rId106" ref="C238"/>
+    <hyperlink r:id="rId107" ref="C239"/>
+    <hyperlink r:id="rId108" ref="C240"/>
+    <hyperlink r:id="rId109" ref="C241"/>
+    <hyperlink r:id="rId110" ref="C242"/>
+    <hyperlink r:id="rId111" ref="C243"/>
+    <hyperlink r:id="rId112" ref="C244"/>
+    <hyperlink r:id="rId113" ref="C245"/>
+    <hyperlink r:id="rId114" ref="C246"/>
+    <hyperlink r:id="rId115" ref="C247"/>
+    <hyperlink r:id="rId116" ref="C248"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId117"/>
 </worksheet>
 </file>